--- a/benchmark_system/Multiple Equal Poles/DataAnalizer.xlsx
+++ b/benchmark_system/Multiple Equal Poles/DataAnalizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\PID_PIDA_Controller\benchmark_system\Multiple Equal Poles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B33158E-ACF2-4DA0-8803-DB96D3386040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068C205-F84B-49E0-85E3-C94F57B37F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,6 @@
     <sheet name="8" sheetId="5" r:id="rId5"/>
     <sheet name="DataAnalizer" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -245,15 +242,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DataAnalizer!$C$1</c:f>
+              <c:f>DataAnalizer!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -263,32 +261,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>DataAnalizer!$B$2:$B$6</c:f>
+              <c:f>DataAnalizer!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -309,10 +293,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>DataAnalizer!$C$2:$C$6</c:f>
+              <c:f>DataAnalizer!$C$10:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -333,8 +317,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C1C-4E6F-A6AF-6D5F185DDD35}"/>
@@ -346,7 +329,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DataAnalizer!$D$1</c:f>
+              <c:f>DataAnalizer!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -356,32 +339,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>DataAnalizer!$B$2:$B$6</c:f>
+              <c:f>DataAnalizer!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -402,10 +371,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>DataAnalizer!$D$2:$D$6</c:f>
+              <c:f>DataAnalizer!$D$10:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -426,8 +395,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7C1C-4E6F-A6AF-6D5F185DDD35}"/>
@@ -439,7 +407,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>DataAnalizer!$E$1</c:f>
+              <c:f>DataAnalizer!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -449,32 +417,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>DataAnalizer!$B$2:$B$6</c:f>
+              <c:f>DataAnalizer!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -495,10 +449,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>DataAnalizer!$E$2:$E$6</c:f>
+              <c:f>DataAnalizer!$E$10:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -519,8 +473,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7C1C-4E6F-A6AF-6D5F185DDD35}"/>
@@ -532,7 +485,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>DataAnalizer!$F$1</c:f>
+              <c:f>DataAnalizer!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -542,32 +495,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>DataAnalizer!$B$2:$B$6</c:f>
+              <c:f>DataAnalizer!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -588,10 +527,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>DataAnalizer!$F$2:$F$6</c:f>
+              <c:f>DataAnalizer!$F$10:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -612,8 +551,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-7C1C-4E6F-A6AF-6D5F185DDD35}"/>
@@ -628,10 +566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="448130976"/>
         <c:axId val="448131632"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="448130976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -721,7 +660,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -760,8 +699,11 @@
         </c:txPr>
         <c:crossAx val="448131632"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="448131632"/>
         <c:scaling>
@@ -891,7 +833,7 @@
         </c:txPr>
         <c:crossAx val="448130976"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -903,6 +845,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90128887811565761"/>
+          <c:y val="0.42942629667117987"/>
+          <c:w val="9.6062992125984251E-2"/>
+          <c:h val="0.16583299374723401"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -916,7 +868,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1537,13 +1489,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1573,437 +1525,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Foglio1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="B5">
-            <v>1200</v>
-          </cell>
-          <cell r="C5">
-            <v>2.9070253111686579</v>
-          </cell>
-          <cell r="F5">
-            <v>8.053691275167786</v>
-          </cell>
-          <cell r="I5">
-            <v>16.216216216216218</v>
-          </cell>
-          <cell r="L5">
-            <v>25.531914893617021</v>
-          </cell>
-          <cell r="O5">
-            <v>52.173913043478258</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>1100</v>
-          </cell>
-          <cell r="C6">
-            <v>2.9076656640233347</v>
-          </cell>
-          <cell r="F6">
-            <v>8.0586080586080584</v>
-          </cell>
-          <cell r="I6">
-            <v>16.236162361623617</v>
-          </cell>
-          <cell r="L6">
-            <v>25.581395348837209</v>
-          </cell>
-          <cell r="O6">
-            <v>52.38095238095238</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1000</v>
-          </cell>
-          <cell r="C7">
-            <v>2.9084344599338081</v>
-          </cell>
-          <cell r="F7">
-            <v>8.064516129032258</v>
-          </cell>
-          <cell r="I7">
-            <v>16.260162601626018</v>
-          </cell>
-          <cell r="L7">
-            <v>25.641025641025642</v>
-          </cell>
-          <cell r="O7">
-            <v>52.631578947368418</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>900</v>
-          </cell>
-          <cell r="C8">
-            <v>2.9093746516553338</v>
-          </cell>
-          <cell r="F8">
-            <v>8.071748878923767</v>
-          </cell>
-          <cell r="I8">
-            <v>16.289592760180994</v>
-          </cell>
-          <cell r="L8">
-            <v>25.714285714285715</v>
-          </cell>
-          <cell r="O8">
-            <v>52.941176470588232</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>800</v>
-          </cell>
-          <cell r="C9">
-            <v>2.9105507464559026</v>
-          </cell>
-          <cell r="F9">
-            <v>8.0808080808080813</v>
-          </cell>
-          <cell r="I9">
-            <v>16.326530612244898</v>
-          </cell>
-          <cell r="L9">
-            <v>25.806451612903224</v>
-          </cell>
-          <cell r="O9">
-            <v>53.333333333333336</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>700</v>
-          </cell>
-          <cell r="C10">
-            <v>2.9120642662458756</v>
-          </cell>
-          <cell r="F10">
-            <v>8.0924855491329488</v>
-          </cell>
-          <cell r="I10">
-            <v>16.374269005847953</v>
-          </cell>
-          <cell r="L10">
-            <v>25.925925925925927</v>
-          </cell>
-          <cell r="O10">
-            <v>53.846153846153847</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>600</v>
-          </cell>
-          <cell r="C11">
-            <v>2.9140847429241332</v>
-          </cell>
-          <cell r="F11">
-            <v>8.1081081081081088</v>
-          </cell>
-          <cell r="I11">
-            <v>16.438356164383563</v>
-          </cell>
-          <cell r="L11">
-            <v>26.086956521739129</v>
-          </cell>
-          <cell r="O11">
-            <v>54.545454545454547</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>500</v>
-          </cell>
-          <cell r="C12">
-            <v>2.9169181251257292</v>
-          </cell>
-          <cell r="F12">
-            <v>8.1300813008130088</v>
-          </cell>
-          <cell r="I12">
-            <v>16.528925619834709</v>
-          </cell>
-          <cell r="L12">
-            <v>26.315789473684209</v>
-          </cell>
-          <cell r="O12">
-            <v>55.555555555555557</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>400</v>
-          </cell>
-          <cell r="C13">
-            <v>2.9211785444472422</v>
-          </cell>
-          <cell r="F13">
-            <v>8.1632653061224492</v>
-          </cell>
-          <cell r="I13">
-            <v>16.666666666666668</v>
-          </cell>
-          <cell r="L13">
-            <v>26.666666666666668</v>
-          </cell>
-          <cell r="O13">
-            <v>57.142857142857146</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>300</v>
-          </cell>
-          <cell r="C14">
-            <v>2.9283069673510602</v>
-          </cell>
-          <cell r="F14">
-            <v>8.2191780821917817</v>
-          </cell>
-          <cell r="I14">
-            <v>16.901408450704224</v>
-          </cell>
-          <cell r="L14">
-            <v>27.272727272727273</v>
-          </cell>
-          <cell r="O14">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>200</v>
-          </cell>
-          <cell r="C15">
-            <v>2.9426686960933539</v>
-          </cell>
-          <cell r="F15">
-            <v>8.3333333333333339</v>
-          </cell>
-          <cell r="I15">
-            <v>17.391304347826086</v>
-          </cell>
-          <cell r="L15">
-            <v>28.571428571428573</v>
-          </cell>
-          <cell r="O15">
-            <v>66.666666666666671</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>100</v>
-          </cell>
-          <cell r="C16">
-            <v>2.9866117404737387</v>
-          </cell>
-          <cell r="F16">
-            <v>8.695652173913043</v>
-          </cell>
-          <cell r="I16">
-            <v>19.047619047619047</v>
-          </cell>
-          <cell r="L16">
-            <v>33.333333333333336</v>
-          </cell>
-          <cell r="O16">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>85</v>
-          </cell>
-          <cell r="C17">
-            <v>3.0024360535931791</v>
-          </cell>
-          <cell r="F17">
-            <v>8.8311688311688314</v>
-          </cell>
-          <cell r="I17">
-            <v>19.710144927536231</v>
-          </cell>
-          <cell r="L17">
-            <v>35.416666666666664</v>
-          </cell>
-          <cell r="O17">
-            <v>121.42857142857143</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>70</v>
-          </cell>
-          <cell r="C18">
-            <v>3.0253353204172879</v>
-          </cell>
-          <cell r="F18">
-            <v>9.0322580645161299</v>
-          </cell>
-          <cell r="I18">
-            <v>20.74074074074074</v>
-          </cell>
-          <cell r="L18">
-            <v>38.888888888888886</v>
-          </cell>
-          <cell r="O18">
-            <v>175</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>55</v>
-          </cell>
-          <cell r="C19">
-            <v>3.0614203454894433</v>
-          </cell>
-          <cell r="F19">
-            <v>9.3617021276595747</v>
-          </cell>
-          <cell r="I19">
-            <v>22.564102564102566</v>
-          </cell>
-          <cell r="L19">
-            <v>45.833333333333336</v>
-          </cell>
-          <cell r="O19">
-            <v>550</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>40</v>
-          </cell>
-          <cell r="C20">
-            <v>3.1266846361185983</v>
-          </cell>
-          <cell r="F20">
-            <v>10</v>
-          </cell>
-          <cell r="I20">
-            <v>26.666666666666668</v>
-          </cell>
-          <cell r="L20">
-            <v>66.666666666666671</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>35</v>
-          </cell>
-          <cell r="C21">
-            <v>3.161993769470405</v>
-          </cell>
-          <cell r="F21">
-            <v>10.37037037037037</v>
-          </cell>
-          <cell r="I21">
-            <v>29.473684210526315</v>
-          </cell>
-          <cell r="L21">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>30</v>
-          </cell>
-          <cell r="C22">
-            <v>3.2103321033210332</v>
-          </cell>
-          <cell r="F22">
-            <v>10.909090909090908</v>
-          </cell>
-          <cell r="I22">
-            <v>34.285714285714285</v>
-          </cell>
-          <cell r="L22">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>25</v>
-          </cell>
-          <cell r="C23">
-            <v>3.2805429864253393</v>
-          </cell>
-          <cell r="F23">
-            <v>11.764705882352942</v>
-          </cell>
-          <cell r="I23">
-            <v>44.444444444444443</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>20</v>
-          </cell>
-          <cell r="C24">
-            <v>3.3918128654970756</v>
-          </cell>
-          <cell r="F24">
-            <v>13.333333333333334</v>
-          </cell>
-          <cell r="I24">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>15</v>
-          </cell>
-          <cell r="C25">
-            <v>3.5950413223140498</v>
-          </cell>
-          <cell r="F25">
-            <v>17.142857142857142</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>10</v>
-          </cell>
-          <cell r="C26">
-            <v>4.084507042253521</v>
-          </cell>
-          <cell r="F26">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>5</v>
-          </cell>
-          <cell r="C27">
-            <v>6.9047619047619042</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>4.5</v>
-          </cell>
-          <cell r="C28">
-            <v>8.1562499999999982</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3614,132 +3135,132 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A7786D-5B75-4A80-A3CC-539327C13335}">
-  <dimension ref="B1:F6"/>
+  <dimension ref="B9:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C10">
         <f>'1'!B2</f>
         <v>4.3362851562247139E-2</v>
       </c>
-      <c r="D2">
+      <c r="D10">
         <f>'1'!C2</f>
         <v>0.16100557511549032</v>
       </c>
-      <c r="E2">
+      <c r="E10">
         <f>'1'!D2</f>
         <v>0.20124397949826514</v>
       </c>
-      <c r="F2">
+      <c r="F10">
         <f>'1'!E2</f>
         <v>2.2806077411919465E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C11">
         <f>'2'!B2</f>
         <v>0.30453507354178766</v>
       </c>
-      <c r="D3">
+      <c r="D11">
         <f>'2'!C2</f>
         <v>0.77715559175034687</v>
       </c>
-      <c r="E3">
+      <c r="E11">
         <f>'2'!D2</f>
         <v>0.62776425397152469</v>
       </c>
-      <c r="F3">
+      <c r="F11">
         <f>'2'!E2</f>
         <v>0.17827851221578025</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C12">
         <f>'3'!B2</f>
         <v>1.0568628113312053</v>
       </c>
-      <c r="D4">
+      <c r="D12">
         <f>'3'!C2</f>
         <v>1.7169618804037847</v>
       </c>
-      <c r="E4">
+      <c r="E12">
         <f>'3'!D2</f>
         <v>1.0262950684691814</v>
       </c>
-      <c r="F4">
+      <c r="F12">
         <f>'3'!E2</f>
         <v>0.4666598451209909</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C13">
         <f>'4'!B2</f>
         <v>2.0598715468817779</v>
       </c>
-      <c r="D5">
+      <c r="D13">
         <f>'4'!C2</f>
         <v>3.6154463771267666</v>
       </c>
-      <c r="E5">
+      <c r="E13">
         <f>'4'!D2</f>
         <v>2.5270466605393298</v>
       </c>
-      <c r="F5">
+      <c r="F13">
         <f>'4'!E2</f>
         <v>1.1472725689825325</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C14">
         <f>'8'!B2</f>
         <v>2.0598715470000002</v>
       </c>
-      <c r="D6">
+      <c r="D14">
         <f>'8'!C2</f>
         <v>3.615446377</v>
       </c>
-      <c r="E6">
+      <c r="E14">
         <f>'8'!D2</f>
         <v>2.527046661</v>
       </c>
-      <c r="F6">
+      <c r="F14">
         <f>'8'!E2</f>
         <v>1.1472725690000001</v>
       </c>
